--- a/test/input.xlsx
+++ b/test/input.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub Projects\wsib-clearance-check-csv-cli\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A441F543-0EF5-45A2-B1CB-373A122C05BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A00FB37-3778-44EE-8510-391556B2A1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,6 +582,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78B3FFE5-9C31-448B-84D0-02B8A240BC8B}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{78B3FFE5-9C31-448B-84D0-02B8A240BC8B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{85E422CC-D6E5-4AF9-BEC0-2BB1DB1EAC91}" name="Account Number"/>
+    <tableColumn id="2" xr3:uid="{0F0DC5E2-269C-4E8B-B61A-68E267006D0A}" name="Business Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,12 +891,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -926,5 +943,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>